--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -64,16 +64,16 @@
     <t>%m/%d/%Y %H:%M:%OS</t>
   </si>
   <si>
-    <t>Factor</t>
+    <t>psi</t>
   </si>
   <si>
-    <t>Time Factor</t>
+    <t>Date Character</t>
   </si>
   <si>
-    <t>Date Factor</t>
+    <t>Time Character</t>
   </si>
   <si>
-    <t>psi</t>
+    <t>Character</t>
   </si>
 </sst>
 </file>
@@ -497,9 +497,9 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
     <col min="11" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -631,7 +631,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N5" s="13">
         <v>0.49652777777777773</v>
@@ -669,7 +669,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N6" s="13">
         <v>0.49652777777777773</v>
@@ -709,7 +709,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N7" s="13">
         <v>0.49652777777777773</v>
@@ -749,7 +749,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N8" s="13">
         <v>0.49805555555555553</v>
@@ -789,7 +789,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N9" s="13">
         <v>0.49805555555555553</v>
@@ -829,7 +829,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N10" s="13">
         <v>0.49805555555555553</v>
@@ -867,7 +867,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N11" s="13">
         <v>0.49805555555555553</v>
@@ -907,7 +907,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N12" s="13">
         <v>0.49805555555555553</v>
@@ -945,7 +945,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N13" s="13">
         <v>0.49805555555555553</v>
@@ -983,7 +983,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N14" s="13">
         <v>0.49805555555555553</v>
@@ -1023,7 +1023,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N15" s="13">
         <v>0.49805555555555553</v>
@@ -1061,7 +1061,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N16" s="13">
         <v>0.49805555555555553</v>
@@ -1101,7 +1101,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N17" s="13">
         <v>0.49805555555555553</v>
@@ -1141,7 +1141,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N18" s="13">
         <v>0.49805555555555553</v>
@@ -1181,7 +1181,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N19" s="13">
         <v>0.49805555555555553</v>
@@ -1219,7 +1219,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N20" s="13">
         <v>0.49965277777777778</v>
@@ -1259,7 +1259,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N21" s="13">
         <v>0.49965277777777778</v>
@@ -1295,7 +1295,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N22" s="13">
         <v>0.49965277777777778</v>
@@ -1331,7 +1331,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N23" s="13">
         <v>0.49965277777777778</v>
@@ -1371,7 +1371,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N24" s="13">
         <v>0.49965277777777778</v>
@@ -1411,7 +1411,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N25" s="13">
         <v>0.49965277777777778</v>
@@ -1449,7 +1449,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N26" s="13">
         <v>0.49965277777777778</v>
@@ -1487,7 +1487,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N27" s="13">
         <v>0.49965277777777778</v>
@@ -1525,7 +1525,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N28" s="13">
         <v>0.49965277777777778</v>
@@ -1565,7 +1565,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N29" s="13">
         <v>0.49965277777777778</v>
@@ -1603,7 +1603,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N30" s="13">
         <v>0.49965277777777778</v>
@@ -1641,7 +1641,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N31" s="13">
         <v>0.49965277777777778</v>
@@ -1681,7 +1681,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N32" s="13">
         <v>0.50118055555555563</v>
@@ -1719,7 +1719,7 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N33" s="13">
         <v>0.50118055555555563</v>
@@ -1757,7 +1757,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N34" s="13">
         <v>0.50118055555555563</v>
@@ -1795,7 +1795,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N35" s="13">
         <v>0.50118055555555563</v>
@@ -1833,7 +1833,7 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N36" s="13">
         <v>0.50118055555555563</v>
@@ -1871,7 +1871,7 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N37" s="13">
         <v>0.50118055555555563</v>
@@ -1909,7 +1909,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N38" s="13">
         <v>0.50118055555555563</v>
@@ -1947,7 +1947,7 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N39" s="13">
         <v>0.50118055555555563</v>
@@ -1985,7 +1985,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N40" s="13">
         <v>0.50118055555555563</v>
@@ -2023,7 +2023,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N41" s="13">
         <v>0.50118055555555563</v>
@@ -2063,7 +2063,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N42" s="13">
         <v>0.50118055555555563</v>
@@ -2101,7 +2101,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N43" s="13">
         <v>0.50118055555555563</v>
@@ -2139,7 +2139,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N44" s="13">
         <v>0.50274305555555554</v>
@@ -2177,7 +2177,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N45" s="13">
         <v>0.50274305555555554</v>
@@ -2215,7 +2215,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N46" s="13">
         <v>0.50274305555555554</v>
@@ -2253,7 +2253,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N47" s="13">
         <v>0.50274305555555554</v>
@@ -2293,7 +2293,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N48" s="13">
         <v>0.50274305555555554</v>
@@ -2331,7 +2331,7 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N49" s="13">
         <v>0.50274305555555554</v>
@@ -2369,7 +2369,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N50" s="13">
         <v>0.50274305555555554</v>
@@ -2409,7 +2409,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N51" s="13">
         <v>0.50274305555555554</v>
@@ -2449,7 +2449,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N52" s="13">
         <v>0.50274305555555554</v>
@@ -2487,7 +2487,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N53" s="13">
         <v>0.50274305555555554</v>
@@ -2525,10 +2525,10 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="12">
-        <v>39666</v>
+        <v>39680</v>
       </c>
       <c r="N54" s="13">
-        <v>0.50274305555555554</v>
+        <v>0.54167824074074067</v>
       </c>
       <c r="O54" s="11"/>
     </row>

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -85,10 +85,17 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0066FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +183,7 @@
     <xf numFmtId="19" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,6 +192,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
       <color rgb="FFEBFFC6"/>
       <color rgb="FFFFFEDE"/>
       <color rgb="FFFFD0D4"/>
@@ -484,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O58"/>
+  <dimension ref="A2:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -502,7 +511,7 @@
     <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -540,7 +549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -572,7 +581,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>1</v>
@@ -600,7 +609,10 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
       <c r="B5" s="4">
         <v>39927.446970775462</v>
       </c>
@@ -638,7 +650,10 @@
       </c>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>2</v>
+      </c>
       <c r="B6" s="4">
         <v>39927.472728668981</v>
       </c>
@@ -678,7 +693,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>3</v>
+      </c>
       <c r="B7" s="4">
         <v>39927.505924710647</v>
       </c>
@@ -718,7 +736,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
       <c r="B8" s="4">
         <v>39927.535409918979</v>
       </c>
@@ -758,7 +779,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>5</v>
+      </c>
       <c r="B9" s="4">
         <v>39927.577033310183</v>
       </c>
@@ -798,7 +822,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>6</v>
+      </c>
       <c r="B10" s="4">
         <v>39927.600110335647</v>
       </c>
@@ -836,7 +863,10 @@
       </c>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
       <c r="B11" s="4">
         <v>39927.614525520832</v>
       </c>
@@ -876,7 +906,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>8</v>
+      </c>
       <c r="B12" s="4">
         <v>39927.624554085647</v>
       </c>
@@ -914,7 +947,10 @@
       </c>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>9</v>
+      </c>
       <c r="B13" s="4">
         <v>39927.639129641204</v>
       </c>
@@ -952,7 +988,10 @@
       </c>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>10</v>
+      </c>
       <c r="B14" s="4">
         <v>39927.678377268516</v>
       </c>
@@ -992,7 +1031,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>11</v>
+      </c>
       <c r="B15" s="4">
         <v>39927.709508518521</v>
       </c>
@@ -1030,7 +1072,10 @@
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>12</v>
+      </c>
       <c r="B16" s="4">
         <v>39927.747905972225</v>
       </c>
@@ -1070,7 +1115,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>13</v>
+      </c>
       <c r="B17" s="4">
         <v>39927.763715219909</v>
       </c>
@@ -1110,7 +1158,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>14</v>
+      </c>
       <c r="B18" s="4">
         <v>39927.80267203704</v>
       </c>
@@ -1150,7 +1201,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>15</v>
+      </c>
       <c r="B19" s="4">
         <v>39927.823210219911</v>
       </c>
@@ -1188,7 +1242,10 @@
       </c>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>16</v>
+      </c>
       <c r="B20" s="4">
         <v>39927.828875462961</v>
       </c>
@@ -1228,7 +1285,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>17</v>
+      </c>
       <c r="B21" s="4">
         <v>39927.864848877318</v>
       </c>
@@ -1266,7 +1326,10 @@
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>18</v>
+      </c>
       <c r="B22" s="4">
         <v>39927.902167129629</v>
       </c>
@@ -1302,7 +1365,10 @@
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>19</v>
+      </c>
       <c r="B23" s="4">
         <v>39927.937931145832</v>
       </c>
@@ -1340,7 +1406,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>20</v>
+      </c>
       <c r="B24" s="4">
         <v>39927.931424432871</v>
       </c>
@@ -1380,7 +1449,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>21</v>
+      </c>
       <c r="B25" s="4">
         <v>39927.971305601852</v>
       </c>
@@ -1418,7 +1490,10 @@
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>22</v>
+      </c>
       <c r="B26" s="4">
         <v>39927.989318298612</v>
       </c>
@@ -1456,7 +1531,10 @@
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>23</v>
+      </c>
       <c r="B27" s="4">
         <v>39927.991667395836</v>
       </c>
@@ -1494,7 +1572,10 @@
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>24</v>
+      </c>
       <c r="B28" s="4">
         <v>39928.006851412036</v>
       </c>
@@ -1534,7 +1615,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>25</v>
+      </c>
       <c r="B29" s="4">
         <v>39928.029524016201</v>
       </c>
@@ -1572,7 +1656,10 @@
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>26</v>
+      </c>
       <c r="B30" s="4">
         <v>39928.053715312497</v>
       </c>
@@ -1610,7 +1697,10 @@
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>27</v>
+      </c>
       <c r="B31" s="4">
         <v>39928.091740520831</v>
       </c>
@@ -1650,7 +1740,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>28</v>
+      </c>
       <c r="B32" s="4">
         <v>39928.127237534725</v>
       </c>
@@ -1688,7 +1781,10 @@
       </c>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>29</v>
+      </c>
       <c r="B33" s="4">
         <v>39928.161209606478</v>
       </c>
@@ -1726,7 +1822,10 @@
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>30</v>
+      </c>
       <c r="B34" s="4">
         <v>39928.170371261571</v>
       </c>
@@ -1764,7 +1863,10 @@
       </c>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>31</v>
+      </c>
       <c r="B35" s="4">
         <v>39928.173794664355</v>
       </c>
@@ -1802,7 +1904,10 @@
       </c>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>32</v>
+      </c>
       <c r="B36" s="4">
         <v>39928.207542719909</v>
       </c>
@@ -1840,7 +1945,10 @@
       </c>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>33</v>
+      </c>
       <c r="B37" s="4">
         <v>39928.21937136574</v>
       </c>
@@ -1878,7 +1986,10 @@
       </c>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>34</v>
+      </c>
       <c r="B38" s="4">
         <v>39928.253159837965</v>
       </c>
@@ -1916,7 +2027,10 @@
       </c>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>35</v>
+      </c>
       <c r="B39" s="4">
         <v>39928.278174606479</v>
       </c>
@@ -1954,7 +2068,10 @@
       </c>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>36</v>
+      </c>
       <c r="B40" s="4">
         <v>39928.295571504626</v>
       </c>
@@ -1992,7 +2109,10 @@
       </c>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>37</v>
+      </c>
       <c r="B41" s="4">
         <v>39928.308560393518</v>
       </c>
@@ -2032,7 +2152,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>38</v>
+      </c>
       <c r="B42" s="4">
         <v>39928.336021030096</v>
       </c>
@@ -2070,7 +2193,10 @@
       </c>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>39</v>
+      </c>
       <c r="B43" s="4">
         <v>39928.340065474535</v>
       </c>
@@ -2108,7 +2234,10 @@
       </c>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>40</v>
+      </c>
       <c r="B44" s="4">
         <v>39928.357899502313</v>
       </c>
@@ -2146,7 +2275,10 @@
       </c>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>41</v>
+      </c>
       <c r="B45" s="4">
         <v>39928.360654328702</v>
       </c>
@@ -2184,7 +2316,10 @@
       </c>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>42</v>
+      </c>
       <c r="B46" s="4">
         <v>39928.37177189815</v>
       </c>
@@ -2222,7 +2357,10 @@
       </c>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>43</v>
+      </c>
       <c r="B47" s="4">
         <v>39928.392144108795</v>
       </c>
@@ -2262,7 +2400,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>44</v>
+      </c>
       <c r="B48" s="4">
         <v>39928.404279895833</v>
       </c>
@@ -2300,7 +2441,10 @@
       </c>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>45</v>
+      </c>
       <c r="B49" s="4">
         <v>39928.407071585651</v>
       </c>
@@ -2338,7 +2482,10 @@
       </c>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>46</v>
+      </c>
       <c r="B50" s="4">
         <v>39928.442570277781</v>
       </c>
@@ -2378,7 +2525,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>47</v>
+      </c>
       <c r="B51" s="4">
         <v>39928.446294409725</v>
       </c>
@@ -2418,7 +2568,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>48</v>
+      </c>
       <c r="B52" s="4">
         <v>39928.487169236112</v>
       </c>
@@ -2456,7 +2609,10 @@
       </c>
       <c r="O52" s="11"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>49</v>
+      </c>
       <c r="B53" s="4">
         <v>39928.518024826386</v>
       </c>
@@ -2494,7 +2650,10 @@
       </c>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>50</v>
+      </c>
       <c r="B54" s="4">
         <v>39928.53297951389</v>
       </c>
@@ -2532,24 +2691,24 @@
       </c>
       <c r="O54" s="11"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M55" s="14"/>
       <c r="N55" s="15"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M56" s="14"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M57" s="14"/>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M58" s="14"/>
       <c r="N58" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>meters</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Character</t>
+  </si>
+  <si>
+    <t>%5.1f</t>
+  </si>
+  <si>
+    <t>%.3f</t>
+  </si>
+  <si>
+    <t>%.2f</t>
+  </si>
+  <si>
+    <t>%.2e</t>
+  </si>
+  <si>
+    <t>%d</t>
+  </si>
+  <si>
+    <t>%s</t>
   </si>
 </sst>
 </file>
@@ -154,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +204,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,11 +520,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O58"/>
+  <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,9 +577,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,32 +607,36 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1294,72 +1318,52 @@
       <c r="A21" s="16">
         <v>17</v>
       </c>
-      <c r="B21" s="4">
-        <v>39927.864848877318</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.2867000000000002</v>
-      </c>
-      <c r="F21" s="7">
-        <v>999.63</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="I21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>6</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="12">
-        <v>39680</v>
-      </c>
-      <c r="N21" s="13">
-        <v>0.49965277777777778</v>
-      </c>
-      <c r="O21" s="11"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>39927.902167129629</v>
+        <v>39927.864848877318</v>
       </c>
       <c r="C22" s="5">
-        <v>-8.8000000000000007</v>
+        <v>0.8</v>
       </c>
       <c r="D22" s="5">
-        <v>-1</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="E22" s="6">
-        <v>2.3391999999999999</v>
+        <v>2.2867000000000002</v>
       </c>
       <c r="F22" s="7">
-        <v>999.66</v>
+        <v>999.63</v>
       </c>
       <c r="G22" s="8">
-        <v>0.71299999999999997</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H22" s="9">
-        <v>0.65400000000000003</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="I22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="12">
@@ -1375,28 +1379,28 @@
         <v>19</v>
       </c>
       <c r="B23" s="4">
-        <v>39927.937931145832</v>
+        <v>39927.902167129629</v>
       </c>
       <c r="C23" s="5">
-        <v>-3.6</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="D23" s="5">
-        <v>2.7</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="6">
-        <v>-0.64300000000000002</v>
+        <v>2.3391999999999999</v>
       </c>
       <c r="F23" s="7">
-        <v>998.38</v>
+        <v>999.66</v>
       </c>
       <c r="G23" s="8">
-        <v>-0.19600000000000001</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H23" s="9">
-        <v>-0.19500000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="I23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -1407,41 +1411,37 @@
       <c r="N23" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>20</v>
       </c>
       <c r="B24" s="4">
-        <v>39927.931424432871</v>
+        <v>39927.937931145832</v>
       </c>
       <c r="C24" s="5">
-        <v>7.5</v>
+        <v>-3.6</v>
       </c>
       <c r="D24" s="5">
-        <v>-7.2</v>
+        <v>2.7</v>
       </c>
       <c r="E24" s="6">
-        <v>-0.65290000000000004</v>
+        <v>-0.64300000000000002</v>
       </c>
       <c r="F24" s="7">
         <v>998.38</v>
       </c>
       <c r="G24" s="8">
-        <v>-0.19900000000000001</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="H24" s="9">
-        <v>-0.19800000000000001</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="I24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="12">
@@ -1459,31 +1459,31 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>39927.971305601852</v>
+        <v>39927.931424432871</v>
       </c>
       <c r="C25" s="5">
-        <v>4.9000000000000004</v>
+        <v>7.5</v>
       </c>
       <c r="D25" s="5">
-        <v>2.4</v>
+        <v>-7.2</v>
       </c>
       <c r="E25" s="6">
-        <v>-0.5151</v>
+        <v>-0.65290000000000004</v>
       </c>
       <c r="F25" s="7">
-        <v>998.44</v>
+        <v>998.38</v>
       </c>
       <c r="G25" s="8">
-        <v>-0.157</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="H25" s="9">
-        <v>-0.156</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="I25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1493,38 +1493,40 @@
       <c r="N25" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O25" s="11"/>
+      <c r="O25" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <v>39927.989318298612</v>
+        <v>39927.971305601852</v>
       </c>
       <c r="C26" s="5">
-        <v>-0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E26" s="6">
-        <v>-2.3589000000000002</v>
+        <v>-0.5151</v>
       </c>
       <c r="F26" s="7">
-        <v>997.65</v>
+        <v>998.44</v>
       </c>
       <c r="G26" s="8">
-        <v>-0.71899999999999997</v>
+        <v>-0.157</v>
       </c>
       <c r="H26" s="9">
-        <v>-0.65900000000000003</v>
+        <v>-0.156</v>
       </c>
       <c r="I26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1541,31 +1543,31 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>39927.991667395836</v>
+        <v>39927.989318298612</v>
       </c>
       <c r="C27" s="5">
-        <v>-7.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D27" s="5">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>-2.8018000000000001</v>
+        <v>-2.3589000000000002</v>
       </c>
       <c r="F27" s="7">
-        <v>997.46</v>
+        <v>997.65</v>
       </c>
       <c r="G27" s="8">
-        <v>-0.85399999999999998</v>
+        <v>-0.71899999999999997</v>
       </c>
       <c r="H27" s="9">
-        <v>-0.754</v>
+        <v>-0.65900000000000003</v>
       </c>
       <c r="I27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1582,31 +1584,31 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>39928.006851412036</v>
+        <v>39927.991667395836</v>
       </c>
       <c r="C28" s="5">
-        <v>-3.9</v>
+        <v>-7.2</v>
       </c>
       <c r="D28" s="5">
-        <v>-9.9</v>
+        <v>-2.7</v>
       </c>
       <c r="E28" s="6">
-        <v>0.91539999999999999</v>
+        <v>-2.8018000000000001</v>
       </c>
       <c r="F28" s="7">
-        <v>999.05</v>
+        <v>997.46</v>
       </c>
       <c r="G28" s="8">
-        <v>0.27900000000000003</v>
+        <v>-0.85399999999999998</v>
       </c>
       <c r="H28" s="9">
-        <v>0.27500000000000002</v>
+        <v>-0.754</v>
       </c>
       <c r="I28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -1616,40 +1618,38 @@
       <c r="N28" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="4">
-        <v>39928.029524016201</v>
+        <v>39928.006851412036</v>
       </c>
       <c r="C29" s="5">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="D29" s="5">
-        <v>9.4</v>
+        <v>-9.9</v>
       </c>
       <c r="E29" s="6">
-        <v>1.8481000000000001</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="F29" s="7">
-        <v>999.45</v>
+        <v>999.05</v>
       </c>
       <c r="G29" s="8">
-        <v>0.56330000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H29" s="9">
-        <v>0.53400000000000003</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -1659,38 +1659,40 @@
       <c r="N29" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O29" s="11"/>
+      <c r="O29" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>39928.053715312497</v>
+        <v>39928.029524016201</v>
       </c>
       <c r="C30" s="5">
-        <v>-5.4</v>
+        <v>-3.7</v>
       </c>
       <c r="D30" s="5">
-        <v>2.2000000000000002</v>
+        <v>9.4</v>
       </c>
       <c r="E30" s="6">
-        <v>0.94489999999999996</v>
+        <v>1.8481000000000001</v>
       </c>
       <c r="F30" s="7">
-        <v>999.06</v>
+        <v>999.45</v>
       </c>
       <c r="G30" s="8">
-        <v>0.28799999999999998</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="H30" s="9">
-        <v>0.28399999999999997</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="I30" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -1707,31 +1709,31 @@
         <v>27</v>
       </c>
       <c r="B31" s="4">
-        <v>39928.091740520831</v>
+        <v>39928.053715312497</v>
       </c>
       <c r="C31" s="5">
-        <v>-4.2</v>
+        <v>-5.4</v>
       </c>
       <c r="D31" s="5">
-        <v>-1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E31" s="6">
-        <v>-1.7257</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="F31" s="7">
-        <v>997.92</v>
+        <v>999.06</v>
       </c>
       <c r="G31" s="8">
-        <v>-0.52600000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H31" s="9">
-        <v>-0.502</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="I31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -1741,40 +1743,38 @@
       <c r="N31" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O31" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>28</v>
       </c>
       <c r="B32" s="4">
-        <v>39928.127237534725</v>
+        <v>39928.091740520831</v>
       </c>
       <c r="C32" s="5">
-        <v>-0.3</v>
+        <v>-4.2</v>
       </c>
       <c r="D32" s="5">
-        <v>5.7</v>
+        <v>-1.5</v>
       </c>
       <c r="E32" s="6">
-        <v>-0.97440000000000004</v>
+        <v>-1.7257</v>
       </c>
       <c r="F32" s="7">
-        <v>998.24</v>
+        <v>997.92</v>
       </c>
       <c r="G32" s="8">
-        <v>-0.29699999999999999</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="H32" s="9">
-        <v>-0.29299999999999998</v>
+        <v>-0.502</v>
       </c>
       <c r="I32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -1782,40 +1782,42 @@
         <v>39680</v>
       </c>
       <c r="N32" s="13">
-        <v>0.50118055555555563</v>
-      </c>
-      <c r="O32" s="11"/>
+        <v>0.49965277777777778</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>39928.161209606478</v>
+        <v>39928.127237534725</v>
       </c>
       <c r="C33" s="5">
-        <v>-7.8</v>
+        <v>-0.3</v>
       </c>
       <c r="D33" s="5">
-        <v>-9.6999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="E33" s="6">
-        <v>-2.7067000000000001</v>
+        <v>-0.97440000000000004</v>
       </c>
       <c r="F33" s="7">
-        <v>997.5</v>
+        <v>998.24</v>
       </c>
       <c r="G33" s="8">
-        <v>-0.82499999999999996</v>
+        <v>-0.29699999999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>-0.73499999999999999</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="I33" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J33" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -1832,31 +1834,31 @@
         <v>30</v>
       </c>
       <c r="B34" s="4">
-        <v>39928.170371261571</v>
+        <v>39928.161209606478</v>
       </c>
       <c r="C34" s="5">
-        <v>2.4</v>
+        <v>-7.8</v>
       </c>
       <c r="D34" s="5">
-        <v>9.4</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="E34" s="6">
-        <v>0.45279999999999998</v>
+        <v>-2.7067000000000001</v>
       </c>
       <c r="F34" s="7">
-        <v>998.85</v>
+        <v>997.5</v>
       </c>
       <c r="G34" s="8">
-        <v>0.13800000000000001</v>
+        <v>-0.82499999999999996</v>
       </c>
       <c r="H34" s="9">
-        <v>0.13800000000000001</v>
+        <v>-0.73499999999999999</v>
       </c>
       <c r="I34" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -1873,31 +1875,31 @@
         <v>31</v>
       </c>
       <c r="B35" s="4">
-        <v>39928.173794664355</v>
+        <v>39928.170371261571</v>
       </c>
       <c r="C35" s="5">
-        <v>9.3000000000000007</v>
+        <v>2.4</v>
       </c>
       <c r="D35" s="5">
-        <v>-5.0999999999999996</v>
+        <v>9.4</v>
       </c>
       <c r="E35" s="6">
-        <v>-0.77759999999999996</v>
+        <v>0.45279999999999998</v>
       </c>
       <c r="F35" s="7">
-        <v>998.32</v>
+        <v>998.85</v>
       </c>
       <c r="G35" s="8">
-        <v>-0.23699999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="H35" s="9">
-        <v>-0.23499999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="I35" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -1914,31 +1916,31 @@
         <v>32</v>
       </c>
       <c r="B36" s="4">
-        <v>39928.207542719909</v>
+        <v>39928.173794664355</v>
       </c>
       <c r="C36" s="5">
-        <v>-9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D36" s="5">
-        <v>2.5</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="E36" s="6">
-        <v>2.7231000000000001</v>
+        <v>-0.77759999999999996</v>
       </c>
       <c r="F36" s="7">
-        <v>999.82</v>
+        <v>998.32</v>
       </c>
       <c r="G36" s="8">
-        <v>0.83</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="H36" s="9">
-        <v>0.73799999999999999</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="I36" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -1955,31 +1957,31 @@
         <v>33</v>
       </c>
       <c r="B37" s="4">
-        <v>39928.21937136574</v>
+        <v>39928.207542719909</v>
       </c>
       <c r="C37" s="5">
-        <v>-7</v>
+        <v>-9.6</v>
       </c>
       <c r="D37" s="5">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="6">
-        <v>-1.2402</v>
+        <v>2.7231000000000001</v>
       </c>
       <c r="F37" s="7">
-        <v>998.13</v>
+        <v>999.82</v>
       </c>
       <c r="G37" s="8">
-        <v>-0.378</v>
+        <v>0.83</v>
       </c>
       <c r="H37" s="9">
-        <v>-0.36899999999999999</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="I37" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -1996,31 +1998,31 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <v>39928.253159837965</v>
+        <v>39928.21937136574</v>
       </c>
       <c r="C38" s="5">
-        <v>6.8</v>
+        <v>-7</v>
       </c>
       <c r="D38" s="5">
-        <v>-1.5</v>
+        <v>3.6</v>
       </c>
       <c r="E38" s="6">
-        <v>-1.0138</v>
+        <v>-1.2402</v>
       </c>
       <c r="F38" s="7">
-        <v>998.22</v>
+        <v>998.13</v>
       </c>
       <c r="G38" s="8">
-        <v>-0.309</v>
+        <v>-0.378</v>
       </c>
       <c r="H38" s="9">
-        <v>-0.30399999999999999</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="I38" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J38" s="10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -2037,31 +2039,31 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <v>39928.278174606479</v>
+        <v>39928.253159837965</v>
       </c>
       <c r="C39" s="5">
-        <v>-7.9</v>
+        <v>6.8</v>
       </c>
       <c r="D39" s="5">
-        <v>-8.6999999999999993</v>
+        <v>-1.5</v>
       </c>
       <c r="E39" s="6">
-        <v>3.1463000000000001</v>
+        <v>-1.0138</v>
       </c>
       <c r="F39" s="7">
-        <v>1000</v>
+        <v>998.22</v>
       </c>
       <c r="G39" s="8">
-        <v>0.95899999999999996</v>
+        <v>-0.309</v>
       </c>
       <c r="H39" s="9">
-        <v>0.81899999999999995</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="I39" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J39" s="10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -2078,28 +2080,28 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <v>39928.295571504626</v>
+        <v>39928.278174606479</v>
       </c>
       <c r="C40" s="5">
-        <v>6.7</v>
+        <v>-7.9</v>
       </c>
       <c r="D40" s="5">
-        <v>-3.8</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="E40" s="6">
-        <v>-2.5427</v>
+        <v>3.1463000000000001</v>
       </c>
       <c r="F40" s="7">
-        <v>997.57</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="8">
-        <v>-0.77500000000000002</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="H40" s="9">
-        <v>-0.7</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="I40" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="10">
         <v>3</v>
@@ -2119,31 +2121,31 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <v>39928.308560393518</v>
+        <v>39928.295571504626</v>
       </c>
       <c r="C41" s="5">
-        <v>-1.8</v>
+        <v>6.7</v>
       </c>
       <c r="D41" s="5">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="E41" s="6">
-        <v>2.1587999999999998</v>
+        <v>-2.5427</v>
       </c>
       <c r="F41" s="7">
-        <v>999.58</v>
+        <v>997.57</v>
       </c>
       <c r="G41" s="8">
-        <v>0.65800000000000003</v>
+        <v>-0.77500000000000002</v>
       </c>
       <c r="H41" s="9">
-        <v>0.61199999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="I41" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -2153,40 +2155,38 @@
       <c r="N41" s="13">
         <v>0.50118055555555563</v>
       </c>
-      <c r="O41" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <v>39928.336021030096</v>
+        <v>39928.308560393518</v>
       </c>
       <c r="C42" s="5">
-        <v>-1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="D42" s="5">
-        <v>1.4</v>
+        <v>-6.9</v>
       </c>
       <c r="E42" s="6">
-        <v>-1.7946</v>
+        <v>2.1587999999999998</v>
       </c>
       <c r="F42" s="7">
-        <v>997.89</v>
+        <v>999.58</v>
       </c>
       <c r="G42" s="8">
-        <v>-0.54700000000000004</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H42" s="9">
-        <v>-0.52</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="I42" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -2196,38 +2196,40 @@
       <c r="N42" s="13">
         <v>0.50118055555555563</v>
       </c>
-      <c r="O42" s="11"/>
+      <c r="O42" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <v>39928.340065474535</v>
+        <v>39928.336021030096</v>
       </c>
       <c r="C43" s="5">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="D43" s="5">
-        <v>-8.3000000000000007</v>
+        <v>1.4</v>
       </c>
       <c r="E43" s="6">
-        <v>-2.7887</v>
+        <v>-1.7946</v>
       </c>
       <c r="F43" s="7">
-        <v>997.46</v>
+        <v>997.89</v>
       </c>
       <c r="G43" s="8">
-        <v>-0.85</v>
+        <v>-0.54700000000000004</v>
       </c>
       <c r="H43" s="9">
-        <v>-0.751</v>
+        <v>-0.52</v>
       </c>
       <c r="I43" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -2244,31 +2246,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <v>39928.357899502313</v>
+        <v>39928.340065474535</v>
       </c>
       <c r="C44" s="5">
-        <v>6</v>
+        <v>-1.5</v>
       </c>
       <c r="D44" s="5">
-        <v>-2.5</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="E44" s="6">
-        <v>1.2139</v>
+        <v>-2.7887</v>
       </c>
       <c r="F44" s="7">
-        <v>999.17</v>
+        <v>997.46</v>
       </c>
       <c r="G44" s="8">
-        <v>0.37</v>
+        <v>-0.85</v>
       </c>
       <c r="H44" s="9">
-        <v>0.36199999999999999</v>
+        <v>-0.751</v>
       </c>
       <c r="I44" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="10">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
@@ -2276,7 +2278,7 @@
         <v>39680</v>
       </c>
       <c r="N44" s="13">
-        <v>0.50274305555555554</v>
+        <v>0.50118055555555563</v>
       </c>
       <c r="O44" s="11"/>
     </row>
@@ -2285,31 +2287,31 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <v>39928.360654328702</v>
+        <v>39928.357899502313</v>
       </c>
       <c r="C45" s="5">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="5">
-        <v>-3.1</v>
+        <v>-2.5</v>
       </c>
       <c r="E45" s="6">
-        <v>-1.7847999999999999</v>
+        <v>1.2139</v>
       </c>
       <c r="F45" s="7">
-        <v>997.89</v>
+        <v>999.17</v>
       </c>
       <c r="G45" s="8">
-        <v>-0.54400000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="H45" s="9">
-        <v>-0.51800000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I45" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J45" s="10">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -2326,31 +2328,31 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>39928.37177189815</v>
+        <v>39928.360654328702</v>
       </c>
       <c r="C46" s="5">
-        <v>1.1000000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="D46" s="5">
-        <v>9.4</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>6</v>
+        <v>-3.1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>-1.7847999999999999</v>
+      </c>
+      <c r="F46" s="7">
+        <v>997.89</v>
+      </c>
+      <c r="G46" s="8">
+        <v>-0.54400000000000004</v>
       </c>
       <c r="H46" s="9">
-        <v>2.9000000000000001E-2</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="I46" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J46" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -2367,31 +2369,31 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>39928.392144108795</v>
+        <v>39928.37177189815</v>
       </c>
       <c r="C47" s="5">
-        <v>-5.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="5">
-        <v>-8.6</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1.1286</v>
-      </c>
-      <c r="F47" s="7">
-        <v>999.14</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0.34399999999999997</v>
+        <v>9.4</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="H47" s="9">
-        <v>0.33700000000000002</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I47" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J47" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -2401,34 +2403,32 @@
       <c r="N47" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O47" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>39928.404279895833</v>
+        <v>39928.392144108795</v>
       </c>
       <c r="C48" s="5">
-        <v>-2.2999999999999998</v>
+        <v>-5.2</v>
       </c>
       <c r="D48" s="5">
-        <v>4.0999999999999996</v>
+        <v>-8.6</v>
       </c>
       <c r="E48" s="6">
-        <v>-0.9708</v>
+        <v>1.1286</v>
       </c>
       <c r="F48" s="7">
-        <v>998.24</v>
+        <v>999.14</v>
       </c>
       <c r="G48" s="8">
-        <v>-0.2959</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H48" s="9">
-        <v>-0.29199999999999998</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="I48" s="10" t="b">
         <v>1</v>
@@ -2444,35 +2444,37 @@
       <c r="N48" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O48" s="11"/>
+      <c r="O48" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>39928.407071585651</v>
+        <v>39928.404279895833</v>
       </c>
       <c r="C49" s="5">
-        <v>8.1</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D49" s="5">
-        <v>-0.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E49" s="6">
-        <v>1.5584</v>
+        <v>-0.9708</v>
       </c>
       <c r="F49" s="7">
-        <v>999.32</v>
+        <v>998.24</v>
       </c>
       <c r="G49" s="8">
-        <v>0.47499999999999998</v>
+        <v>-0.2959</v>
       </c>
       <c r="H49" s="9">
-        <v>0.45700000000000002</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="I49" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="10">
         <v>1</v>
@@ -2492,31 +2494,31 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>39928.442570277781</v>
+        <v>39928.407071585651</v>
       </c>
       <c r="C50" s="5">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="D50" s="5">
-        <v>5.7</v>
+        <v>-0.6</v>
       </c>
       <c r="E50" s="6">
-        <v>2.0308000000000002</v>
+        <v>1.5584</v>
       </c>
       <c r="F50" s="7">
-        <v>999.52</v>
+        <v>999.32</v>
       </c>
       <c r="G50" s="8">
-        <v>0.61899999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H50" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="I50" s="10" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -2526,40 +2528,38 @@
       <c r="N50" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O50" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>39928.446294409725</v>
+        <v>39928.442570277781</v>
       </c>
       <c r="C51" s="5">
-        <v>-1.4</v>
+        <v>7.5</v>
       </c>
       <c r="D51" s="5">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E51" s="6">
-        <v>0.25919999999999999</v>
+        <v>2.0308000000000002</v>
       </c>
       <c r="F51" s="7">
-        <v>998.77</v>
+        <v>999.52</v>
       </c>
       <c r="G51" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H51" s="9">
-        <v>7.8899999999999998E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I51" s="10" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -2570,7 +2570,7 @@
         <v>0.50274305555555554</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2578,31 +2578,31 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <v>39928.487169236112</v>
+        <v>39928.446294409725</v>
       </c>
       <c r="C52" s="5">
-        <v>5.8</v>
+        <v>-1.4</v>
       </c>
       <c r="D52" s="5">
-        <v>-6.6</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>0.2329</v>
+        <v>0.25919999999999999</v>
       </c>
       <c r="F52" s="7">
-        <v>998.76</v>
+        <v>998.77</v>
       </c>
       <c r="G52" s="8">
-        <v>7.0999999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H52" s="9">
-        <v>7.0900000000000005E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="I52" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -2612,38 +2612,40 @@
       <c r="N52" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O52" s="11"/>
+      <c r="O52" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <v>39928.518024826386</v>
+        <v>39928.487169236112</v>
       </c>
       <c r="C53" s="5">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="D53" s="5">
-        <v>-5</v>
+        <v>-6.6</v>
       </c>
       <c r="E53" s="6">
-        <v>-2.9790000000000001</v>
+        <v>0.2329</v>
       </c>
       <c r="F53" s="7">
-        <v>997.38</v>
+        <v>998.76</v>
       </c>
       <c r="G53" s="8">
-        <v>-0.90800000000000003</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H53" s="9">
-        <v>-0.78800000000000003</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="I53" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -2660,31 +2662,31 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>39928.53297951389</v>
+        <v>39928.518024826386</v>
       </c>
       <c r="C54" s="5">
-        <v>-6.4</v>
+        <v>1.5</v>
       </c>
       <c r="D54" s="5">
-        <v>-7.3</v>
+        <v>-5</v>
       </c>
       <c r="E54" s="6">
-        <v>-2.3359999999999999</v>
+        <v>-2.9790000000000001</v>
       </c>
       <c r="F54" s="7">
-        <v>997.66</v>
+        <v>997.38</v>
       </c>
       <c r="G54" s="8">
-        <v>-0.71199999999999997</v>
+        <v>-0.90800000000000003</v>
       </c>
       <c r="H54" s="9">
-        <v>-0.65300000000000002</v>
+        <v>-0.78800000000000003</v>
       </c>
       <c r="I54" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -2692,13 +2694,50 @@
         <v>39680</v>
       </c>
       <c r="N54" s="13">
+        <v>0.50274305555555554</v>
+      </c>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4">
+        <v>39928.53297951389</v>
+      </c>
+      <c r="C55" s="5">
+        <v>-6.4</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-7.3</v>
+      </c>
+      <c r="E55" s="6">
+        <v>-2.3359999999999999</v>
+      </c>
+      <c r="F55" s="7">
+        <v>997.66</v>
+      </c>
+      <c r="G55" s="8">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="H55" s="9">
+        <v>-0.65300000000000002</v>
+      </c>
+      <c r="I55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10">
+        <v>-13</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="12">
+        <v>39680</v>
+      </c>
+      <c r="N55" s="13">
         <v>0.54167824074074067</v>
       </c>
-      <c r="O54" s="11"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M55" s="14"/>
-      <c r="N55" s="15"/>
+      <c r="O55" s="11"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M56" s="14"/>
@@ -2711,6 +2750,10 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M58" s="14"/>
       <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>T POSIXct</t>
-  </si>
-  <si>
-    <t>%m/%d/%Y %H:%M:%OS</t>
   </si>
   <si>
     <t>Character</t>
@@ -84,15 +81,19 @@
   <si>
     <t>Time character</t>
   </si>
+  <si>
+    <t>%m/%d/%Y %H:%M:%OS3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -157,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +193,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,14 +508,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -527,34 +529,34 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -562,39 +564,39 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1305,8 +1307,8 @@
       <c r="D21" s="4">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="E21" s="5">
-        <v>2.2867000000000002</v>
+      <c r="E21" s="19">
+        <v>3.1415929999999999</v>
       </c>
       <c r="F21" s="6">
         <v>999.63</v>
